--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -777,7 +777,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/fhir/CodeSystem/fr-location-identifier-type"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem-fr-core-cs-location-identifier-type"/&gt;
     &lt;code value="IDNST"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -777,7 +777,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem-fr-core-cs-location-identifier-type"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-location-identifier-type"/&gt;
     &lt;code value="IDNST"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil dérivé de FrOrganization pour le cas d'usage agrégateur de la plateforme SAS - cas d'usage CPTS</t>
+    <t>Profil dérivé de FrOrganization pour le cas d'usage agrégateur de la plateforme SAS [cas d'usage CPTS]</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
